--- a/日本IT行业数据积累2022.6.25.xlsx
+++ b/日本IT行业数据积累2022.6.25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Themes_Learning_S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E4DC0-5056-47EE-80CB-B377111DCEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C6FB8-1266-4DF8-8ABE-101F2B38E967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="6390" windowWidth="19155" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="21465" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新闻" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ITmedia NEWS</t>
     <phoneticPr fontId="1"/>
@@ -74,6 +74,65 @@
   </si>
   <si>
     <t>https://directscout.recruit.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021 © 延喜求人NET 延熹株式会社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://job.exky.jp/public/job-view;industry=IT%E3%83%BB%E9%80%9A%E4%BF%A1;tab=industry</t>
+  </si>
+  <si>
+    <t>リクナビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://job.rikunabi.com/2023/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DODA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://doda.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリコネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://careerconnection.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://paiza.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Findy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://findy-code.io/home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lancers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.lancers.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.nenshuu.net/shoku/cnt/shoku.php?shoku_id=6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -454,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F11E880-2829-4343-8E54-FD6E89F4DFC8}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -494,6 +553,67 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -501,6 +621,13 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{125B67A4-3EDF-468F-89CC-044CAD0864AC}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{4D698941-EA7B-43A8-89EC-0CF69268AA21}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{CD54FD9A-A150-4E3C-A91A-EBF965AB8797}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{F5E19DB7-0905-4A62-BDF8-40870D85A449}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{0923DD82-6C01-43CE-BD45-AEFF4BF2380A}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{B9B5A8A7-69D7-4C52-B57F-C444BA436CC0}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{785B7322-994E-427F-8518-BD427B17273E}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{31CA300E-C206-4D2B-B974-3D83812C9AFB}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{91554F47-6BA7-401B-969C-7936F9758077}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{813CB1C1-674F-4D7A-84AC-B365015BC2BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/日本IT行业数据积累2022.6.25.xlsx
+++ b/日本IT行业数据积累2022.6.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Themes_Learning_S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C6FB8-1266-4DF8-8ABE-101F2B38E967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEF35F-20D8-4C36-8B3D-61385BD55D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2010" windowWidth="21465" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2010" windowWidth="21465" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新闻" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ITmedia NEWS</t>
     <phoneticPr fontId="1"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>https://www.nenshuu.net/shoku/cnt/shoku.php?shoku_id=6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://freelance.fosternet.jp/projects/list/?search_word=Go</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F11E880-2829-4343-8E54-FD6E89F4DFC8}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -612,6 +616,11 @@
     <row r="13" spans="2:3">
       <c r="C13" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -628,6 +637,7 @@
     <hyperlink ref="C11" r:id="rId9" xr:uid="{31CA300E-C206-4D2B-B974-3D83812C9AFB}"/>
     <hyperlink ref="C12" r:id="rId10" xr:uid="{91554F47-6BA7-401B-969C-7936F9758077}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{813CB1C1-674F-4D7A-84AC-B365015BC2BB}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{26EEC4C1-4066-416D-99BB-B5309FDB1D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
